--- a/data/income_statement/3digits/total/309_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/309_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>309-Manufacture of transport equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>309-Manufacture of transport equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,35 +841,40 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>445152.44451</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>578429.24291</v>
+        <v>578429.2429099999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>745093.42915</v>
+        <v>745093.4291499999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>818065.51609</v>
+        <v>818065.5160899999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>926407.90658</v>
+        <v>939064.23723</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>983565.78624</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>949233.2226799999</v>
+        <v>1032928.5339</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1350084.55714</v>
@@ -977,37 +883,42 @@
         <v>1593631.34826</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1620898.26351</v>
+        <v>1637174.84981</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1945055.73297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1947640.13019</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3298536.711</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>342635.8254799999</v>
+        <v>342635.82548</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>484432.95302</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>642874.1606000001</v>
+        <v>642874.1605999999</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>727168.86346</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>831533.6438199999</v>
+        <v>843944.9172700001</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>882182.8318099999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>890786.4123000001</v>
+        <v>912546.68699</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>1242751.36416</v>
@@ -1016,37 +927,42 @@
         <v>1489891.17989</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1484249.13497</v>
+        <v>1500525.72127</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1746783.38403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1749367.78125</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2797450.027</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>96700.30682</v>
+        <v>96700.30682000001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>89385.64869</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>95105.09199999999</v>
+        <v>95105.092</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>82642.52098999999</v>
+        <v>82642.52099</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>83233.30341999998</v>
+        <v>83261.89302000002</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>84950.15876999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>46668.25542</v>
+        <v>107487.63342</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>89328.30858</v>
@@ -1060,14 +976,19 @@
       <c r="M7" s="48" t="n">
         <v>182628.98124</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>460278.219</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5816.312210000001</v>
+        <v>5816.31221</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>4610.6412</v>
@@ -1079,13 +1000,13 @@
         <v>8254.13164</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11640.95934</v>
+        <v>11857.42694</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>16432.79566</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>11778.55496</v>
+        <v>12894.21349</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>18004.8844</v>
@@ -1099,11 +1020,16 @@
       <c r="M8" s="48" t="n">
         <v>15643.3677</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>40808.465</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>21607.28804</v>
@@ -1112,22 +1038,22 @@
         <v>33487.62858</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>38026.44998999999</v>
+        <v>38026.44999</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>61015.14358</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>53919.11233</v>
+        <v>54229.04451</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>32441.85903</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>33033.3216</v>
+        <v>33094.63823</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>50167.43224999999</v>
+        <v>50167.43225</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>126361.63726</v>
@@ -1136,13 +1062,18 @@
         <v>58529.6692</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>64315.24577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>64315.42277</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>92161.232</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5699.550429999999</v>
@@ -1157,13 +1088,13 @@
         <v>18242.04875</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16442.32235</v>
+        <v>16714.06656</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>14745.69425</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13700.76593</v>
+        <v>13760.76215</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>19312.31043</v>
@@ -1175,19 +1106,24 @@
         <v>25155.15074</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22890.48312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22890.66012</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>30709.641</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>15307.44078</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>26154.34282</v>
+        <v>26154.34282000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>28978.78773</v>
@@ -1196,13 +1132,13 @@
         <v>42168.91622</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>37265.3769</v>
+        <v>37303.56486999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>16630.26496</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>18648.29612</v>
+        <v>18649.61653</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>30079.91381</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>36489.58987</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>52625.785</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>600.29683</v>
+        <v>600.2968300000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>813.19052</v>
@@ -1241,7 +1182,7 @@
         <v>1065.89982</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>684.25955</v>
+        <v>684.2595499999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>775.2080100000001</v>
@@ -1255,32 +1196,37 @@
       <c r="M12" s="48" t="n">
         <v>4935.17278</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>8825.806</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>423545.15647</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>544941.61433</v>
+        <v>544941.6143299999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>707066.9791600001</v>
+        <v>707066.97916</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>757050.37251</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>872488.79425</v>
+        <v>884835.1927200001</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>951123.92721</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>916199.9010800001</v>
+        <v>999833.89567</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1299917.12489</v>
@@ -1289,16 +1235,21 @@
         <v>1467269.711</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1562368.59431</v>
+        <v>1578645.18061</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1880740.4872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1883324.70742</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3206375.479</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>330904.92133</v>
@@ -1313,13 +1264,13 @@
         <v>595595.2067000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>692477.1820199999</v>
+        <v>703397.87161</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>790078.62049</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>750875.86153</v>
+        <v>824848.42346</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1073259.65209</v>
@@ -1328,16 +1279,21 @@
         <v>1216355.63155</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1275652.65091</v>
+        <v>1291588.02691</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1577646.59555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1579904.23339</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2796319.992</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>234517.99194</v>
@@ -1352,70 +1308,80 @@
         <v>467885.45188</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>543259.0877499999</v>
+        <v>551674.6585400001</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>589438.03062</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>557571.33887</v>
+        <v>609183.9539</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>741557.34143</v>
+        <v>741557.3414299999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>684443.59496</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>974025.22818</v>
+        <v>974025.2281800001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1206507.83877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1208662.87648</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2084316.66</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>90426.26333999999</v>
+        <v>90426.26334</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>141606.08037</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>90132.81889</v>
+        <v>90132.81889000001</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>110569.38414</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>143505.19817</v>
+        <v>146010.31697</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>197082.8526</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>189528.48235</v>
+        <v>211655.87864</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>328553.2108999999</v>
+        <v>328553.2109000001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>526018.50841</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>295935.75536</v>
+        <v>311871.13136</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>362857.19321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>362916.3471799999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>673292.513</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2458.62301</v>
@@ -1424,7 +1390,7 @@
         <v>12913.57183</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2784.603520000001</v>
+        <v>2784.60352</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>13897.81785</v>
@@ -1448,13 +1414,18 @@
         <v>1791.27325</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3157.44716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3200.89332</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>12995.664</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3502.04304</v>
@@ -1475,7 +1446,7 @@
         <v>2684.95105</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2716.88854</v>
+        <v>2949.43915</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>612.31447</v>
@@ -1484,16 +1455,21 @@
         <v>1356.55871</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3900.394119999999</v>
+        <v>3900.39412</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>5124.116410000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>25715.155</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>92640.23514</v>
@@ -1508,13 +1484,13 @@
         <v>161455.16581</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>180011.61223</v>
+        <v>181437.32111</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>161045.30672</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>165324.03955</v>
+        <v>174985.47221</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>226657.4728</v>
@@ -1523,55 +1499,65 @@
         <v>250914.07945</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>286715.9434</v>
+        <v>287057.1537</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>303093.89165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>303420.47403</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>410055.487</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>69902.24851</v>
+        <v>69902.24850999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>69300.28570000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>80118.59849</v>
+        <v>80118.59848999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>91795.84969999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>113852.404</v>
+        <v>114384.29272</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>125543.48031</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>112104.11162</v>
+        <v>118764.8987</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>138130.9659</v>
+        <v>138128.81452</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>175504.09858</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>178523.57184</v>
+        <v>178947.53613</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>196979.98727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>197569.62152</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>216135.67</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>298.76095</v>
@@ -1601,16 +1587,21 @@
         <v>999.50365</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1456.82905</v>
+        <v>1477.32601</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>354.01718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>442.75362</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1086.818</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>29053.99725</v>
@@ -1619,43 +1610,48 @@
         <v>35706.08714</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>46819.34264000001</v>
+        <v>46819.34264</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>48856.01909999999</v>
+        <v>48856.0191</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>51818.45857000001</v>
+        <v>52099.04646</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>58471.10399</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>62107.23081999999</v>
+        <v>66708.52409000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>79725.20234</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>88453.22089999999</v>
+        <v>88453.2209</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>97012.83904000001</v>
+        <v>97208.72753999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>104353.63351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>104456.67622</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>105071.444</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>40549.49031</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>33457.26158999999</v>
+        <v>33457.26159</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>33070.8155</v>
@@ -1664,82 +1660,92 @@
         <v>42716.80602</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>61766.84597</v>
+        <v>62018.14679999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>66668.88408999999</v>
+        <v>66668.88409000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>49560.43769999999</v>
+        <v>51619.93151</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>57666.25745000001</v>
+        <v>57664.10607</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>86051.37403000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>80053.90375</v>
+        <v>80261.48258</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>92272.33658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>92670.19167999999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>109977.408</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>22737.98663</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>42501.17208999999</v>
+        <v>42501.17209</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>75945.55364999999</v>
+        <v>75945.55365</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>69659.31611</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>66159.20823</v>
+        <v>67053.02838999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>35501.82641</v>
+        <v>35501.82640999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>53219.92793000001</v>
+        <v>56220.57350999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>88526.50689999999</v>
+        <v>88528.65828</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>75409.98086999998</v>
+        <v>75409.98087</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>108192.37156</v>
+        <v>108109.61757</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>106113.90438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>105850.85251</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>193919.817</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>20804.07972</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>17338.54341</v>
+        <v>17338.54340999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>25075.13734</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>40572.33731999999</v>
+        <v>40572.33732</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>43091.26525</v>
@@ -1748,10 +1754,10 @@
         <v>46316.02609000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>51964.48253999999</v>
+        <v>66318.98934</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>88997.16549999999</v>
+        <v>88997.1655</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>129336.22013</v>
@@ -1760,13 +1766,18 @@
         <v>285518.19998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>185808.45546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>185862.5217</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>247426.706</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>119.34035</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>542.16165</v>
@@ -1859,13 +1880,13 @@
         <v>2567.5307</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3162.620289999999</v>
+        <v>3162.62029</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>3181.12996</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1533.87121</v>
+        <v>1709.53664</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>1592.49059</v>
@@ -1877,13 +1898,18 @@
         <v>14169.01409</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9390.19407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9413.4409</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12782.315</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>153.82582</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>7339.254110000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>30.026</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4829.47865</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>2573.06086</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>477.65</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>21.70968</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>21.43601</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>6.752</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>10509.16644</v>
@@ -2021,13 +2062,13 @@
         <v>25065.33617</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>33070.99496</v>
+        <v>47173.82607999999</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>64652.42997</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>93081.78930000002</v>
+        <v>93081.7893</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>223341.51479</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>135623.39267</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>195951.898</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>560.9681400000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24106.27569</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27452.604</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>4067.42899</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4009.26023</v>
+        <v>4009.260229999999</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>4774.845710000001</v>
@@ -2138,7 +2194,7 @@
         <v>2746.54952</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5171.212519999999</v>
+        <v>5247.222769999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>6810.67875</v>
@@ -2147,16 +2203,21 @@
         <v>6227.311580000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4605.27177</v>
+        <v>4605.271769999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6754.842050000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6785.661460000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10725.461</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>15030.97348</v>
@@ -2171,16 +2232,16 @@
         <v>34170.70702</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54210.39792999999</v>
+        <v>54210.39793000001</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>41858.44151</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>47876.35967999999</v>
+        <v>70610.50620999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>95238.15453999999</v>
+        <v>95238.15454</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>127844.72675</v>
@@ -2189,13 +2250,18 @@
         <v>309571.82023</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>159609.57461</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>159611.07461</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>232326.49</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>18.23226</v>
@@ -2207,7 +2273,7 @@
         <v>392.84238</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6.779169999999999</v>
+        <v>6.77917</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>36.3923</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>123.73115</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>188.47</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>8801.062449999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2100.75709</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3936.503</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>13.516</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5850.269139999999</v>
+        <v>5850.26914</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6241.007920000001</v>
+        <v>6241.00792</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>12159.36804</v>
@@ -2327,16 +2408,16 @@
         <v>11028.05224</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>26843.98198999999</v>
+        <v>26843.98199</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>22487.84312</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>32173.08096</v>
+        <v>54907.22749</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>77574.07308</v>
+        <v>77574.07308000002</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>102080.19777</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>139466.46832</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>194125.065</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>35.84873</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>16643.34525</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>32232.93</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>3e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>325.5609</v>
@@ -2441,7 +2537,7 @@
         <v>394.2435</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>484.4775299999999</v>
+        <v>484.47753</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1234.15353</v>
@@ -2453,7 +2549,7 @@
         <v>435.0896499999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>319.87383</v>
+        <v>319.8738299999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1561.8504</v>
@@ -2462,13 +2558,18 @@
         <v>1418.92982</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1275.27277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1276.77277</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1830.006</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>23251.64591</v>
@@ -2483,31 +2584,36 @@
         <v>30185.67941</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>29499.3509</v>
+        <v>30349.82087</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>32680.22689</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>34597.83215</v>
+        <v>37164.43624</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33167.24719</v>
+        <v>33167.24718999999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>38945.47439</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>78807.65933000001</v>
+        <v>78807.65932999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>104083.14063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>104121.43259</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>112303.804</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>22894.72737</v>
@@ -2522,13 +2628,13 @@
         <v>29876.42109</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28852.57115</v>
+        <v>29703.04112</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>32474.25186</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>34168.94014</v>
+        <v>36735.54423</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>32353.97341</v>
@@ -2537,16 +2643,21 @@
         <v>38457.57016</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>78518.1433</v>
+        <v>78518.14329999998</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>94469.57462999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>94507.86659000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>102074.398</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>356.9185400000001</v>
@@ -2570,7 +2681,7 @@
         <v>428.89201</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>813.27378</v>
+        <v>813.2737799999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>487.90423</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>9613.566000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>10229.406</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5259.446959999999</v>
@@ -2594,37 +2710,42 @@
         <v>21979.84656</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>54064.50915000001</v>
+        <v>54064.50915</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>45875.26700000001</v>
+        <v>45875.267</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>25540.72465</v>
+        <v>25584.07484</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7279.1841</v>
+        <v>7279.184100000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>22710.21864</v>
+        <v>14764.6204</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>49118.27067000001</v>
+        <v>49120.42204999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>37955.99986</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5331.091979999997</v>
+        <v>5248.337990000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>28229.6446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>27980.86701</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>96716.22900000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>14425.82405</v>
@@ -2633,37 +2754,42 @@
         <v>2610.70821</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6750.41775</v>
+        <v>6750.417750000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>17857.32573</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5724.4297</v>
+        <v>5724.429700000001</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>17367.11836</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17203.12588</v>
+        <v>17668.43946</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5570.551219999999</v>
+        <v>5570.55122</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>27568.08046</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11190.31897</v>
+        <v>11190.8551</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15500.96362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>15510.62285</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>25438.924</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2.81057</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>118.95353</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>73.663</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>14423.01348</v>
@@ -2711,37 +2842,42 @@
         <v>2610.17236</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6750.41772</v>
+        <v>6750.417719999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>17857.32573</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5675.232749999999</v>
+        <v>5675.23275</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>17188.3814</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17182.34027</v>
+        <v>17647.65385</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5298.0714</v>
+        <v>5298.071400000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>27482.15862</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11177.83535</v>
+        <v>11178.37148</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>15382.01009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>15391.66932</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>25365.261</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2674.71841</v>
@@ -2756,13 +2892,13 @@
         <v>6931.073</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3743.92093</v>
+        <v>3746.51989</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>6764.08772</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5054.430179999999</v>
+        <v>5594.81057</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>18013.63487</v>
@@ -2771,16 +2907,21 @@
         <v>14411.7374</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>9289.295310000001</v>
+        <v>9290.361729999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6090.18416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6091.09421</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>11712.474</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>101.99852</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>708.83895</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1539.308</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>329.02407</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>138.59293</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3060.027</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2243.69582</v>
@@ -2873,13 +3024,13 @@
         <v>6095.77754</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2445.6082</v>
+        <v>2448.20716</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5261.801670000001</v>
+        <v>5261.80167</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4091.56925</v>
+        <v>4631.94964</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>17568.29512</v>
@@ -2888,22 +3039,27 @@
         <v>12726.38234</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7517.92026</v>
+        <v>7518.98668</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5242.752280000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5243.66233</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7113.139</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>17010.5526</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>22056.82974</v>
+        <v>22056.82973999999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>45450.80058</v>
@@ -2912,31 +3068,36 @@
         <v>56801.51973000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>27521.23342</v>
+        <v>27561.98465</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>17882.21474</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>34858.91434</v>
+        <v>26838.24929</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>36675.18702</v>
+        <v>36677.33840000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>51112.34292</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7232.115640000005</v>
+        <v>7148.831359999998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>37640.42406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>37400.39565</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>110442.679</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3445.45054</v>
@@ -2954,10 +3115,10 @@
         <v>5517.07849</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6750.13526</v>
+        <v>6750.135260000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>9595.951439999997</v>
+        <v>9653.302290000001</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>13396.26849</v>
@@ -2969,13 +3130,18 @@
         <v>11131.33541</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9471.765460000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9481.52894</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>21814.905</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>13565.10206</v>
@@ -2987,31 +3153,34 @@
         <v>36110.71993</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>46371.49238999999</v>
+        <v>46371.49239</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>22004.15493</v>
+        <v>22044.90615999999</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>11132.07948</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>25262.9629</v>
+        <v>17184.947</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>23278.91853</v>
+        <v>23281.06991000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>40479.09787000001</v>
+        <v>40479.09787</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3899.21977</v>
+        <v>-3982.504049999997</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>28168.6586</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>27918.86671</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>88627.774</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>109</v>
@@ -3044,13 +3216,13 @@
         <v>111</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>123</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>129</v>
@@ -3059,13 +3231,16 @@
         <v>142</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>146</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>